--- a/GmailTestData.xlsx
+++ b/GmailTestData.xlsx
@@ -3,25 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EA750B3C-0659-4EF9-8CE7-D9EC9E0927BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIKITHA\eclipse-workspace\LearnSelenium\src\main\java\qa\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965B9B2D-78B8-45EF-9C34-4D951FC44E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20760" windowHeight="11820" activeTab="1" xr2:uid="{D78CD368-DA32-4359-AA05-0155B012B35A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D78CD368-DA32-4359-AA05-0155B012B35A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,9 +37,6 @@
     <t>josephnancy758@gmail.com</t>
   </si>
   <si>
-    <t>Nancy@123</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -58,6 +53,9 @@
   </si>
   <si>
     <t>https://accounts.google.com/signin</t>
+  </si>
+  <si>
+    <t>Nancy@1234</t>
   </si>
 </sst>
 </file>
@@ -463,18 +461,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CB3123-8DFE-49F7-A2E5-E12194B4C76D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -499,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
